--- a/Обзор_Литературы/Полезные_Ссылки.xlsx
+++ b/Обзор_Литературы/Полезные_Ссылки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Код\Parser\ОбзорЛитературы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Код\Parser\Обзор_Литературы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C75985A-EFB2-4924-AC71-2B3F085B961E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D585EC-5FD0-4784-BD21-0F5EC9FFA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="1395" windowWidth="17835" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19815" yWindow="1335" windowWidth="17835" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Ссылка</t>
   </si>
@@ -55,16 +55,51 @@
   </si>
   <si>
     <t>Requests Documentation</t>
+  </si>
+  <si>
+    <t>https://github.com/wondersell/wildsearch-crawler</t>
+  </si>
+  <si>
+    <t>https://qna.habr.com/q/917289</t>
+  </si>
+  <si>
+    <t>И еще один</t>
+  </si>
+  <si>
+    <t>https://proglib.io/p/web-scraping</t>
+  </si>
+  <si>
+    <t>Селениум</t>
+  </si>
+  <si>
+    <t>https://istories.media/workshops/2021/09/10/parsing-s-pomoshchyu-python-urok-1/</t>
+  </si>
+  <si>
+    <t>Полезная статья про парсинг</t>
+  </si>
+  <si>
+    <t>https://www.selenium.dev/documentation</t>
+  </si>
+  <si>
+    <t>Selenium documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,14 +122,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +431,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
@@ -404,7 +442,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
@@ -415,7 +453,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -426,15 +464,75 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{61CCDF6F-6F71-4393-BC03-A0E0680A2A90}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{3C739FFA-B448-4FB1-BCA0-572D95EF1746}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{A02A9492-8BB0-4AC8-858F-0CDF1A35A822}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{B2B1CF73-B72F-41B5-A511-B386C9F3520B}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{8342EF55-E4BD-4CF1-827E-5817EB6B3D99}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{00D7F3B8-0132-4C3A-BF8E-4732959A1D7D}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{CAD01103-1848-4DAE-A653-D2EB1A9EFB0A}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{E7728B59-CFC7-487D-AAA8-636B54EF7189}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{3E30AC0F-C0FA-4124-9D92-CF68993E16CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Обзор_Литературы/Полезные_Ссылки.xlsx
+++ b/Обзор_Литературы/Полезные_Ссылки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Код\Parser\Обзор_Литературы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D585EC-5FD0-4784-BD21-0F5EC9FFA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF54B8C-726E-4172-8C8F-3E1DA16D0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19815" yWindow="1335" windowWidth="17835" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Ссылка</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Selenium documentation</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/post/323238/</t>
+  </si>
+  <si>
+    <t>Многопоточность</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/docs/</t>
+  </si>
+  <si>
+    <t>Документация Pandas</t>
+  </si>
+  <si>
+    <t>https://habr.com/ru/company/ruvds/blog/494720/</t>
+  </si>
+  <si>
+    <t>Шпаргалка по Pandas</t>
   </si>
 </sst>
 </file>
@@ -411,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +523,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
@@ -513,11 +534,44 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -531,8 +585,9 @@
     <hyperlink ref="B6" r:id="rId7" xr:uid="{CAD01103-1848-4DAE-A653-D2EB1A9EFB0A}"/>
     <hyperlink ref="B7" r:id="rId8" xr:uid="{E7728B59-CFC7-487D-AAA8-636B54EF7189}"/>
     <hyperlink ref="B8" r:id="rId9" xr:uid="{3E30AC0F-C0FA-4124-9D92-CF68993E16CA}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{5959BFB4-7209-480E-ABFB-719EE3A7234E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Обзор_Литературы/Полезные_Ссылки.xlsx
+++ b/Обзор_Литературы/Полезные_Ссылки.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Код\Parser\Обзор_Литературы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF54B8C-726E-4172-8C8F-3E1DA16D0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E265A3F-97B1-4D01-ACDA-25964E242A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19815" yWindow="1335" windowWidth="17835" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20910" yWindow="1260" windowWidth="17835" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +567,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
